--- a/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19602835-6D02-1E4D-91FF-74C02D8ABA58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7FFBE1-0393-5C4C-AC51-54F0ADE73BB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="1560" windowWidth="18140" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Santa Cruz</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -494,13 +497,12 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -1051,10 +1053,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2">
         <v>1315488</v>
